--- a/processedFiles/dataTotalsmodel4.xlsx
+++ b/processedFiles/dataTotalsmodel4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>File</t>
   </si>
@@ -172,6 +172,33 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>Y intercept</t>
+  </si>
+  <si>
+    <t>Ereg</t>
+  </si>
+  <si>
+    <t>Ep1</t>
+  </si>
+  <si>
+    <t>Ep2</t>
+  </si>
+  <si>
+    <t>Enp</t>
+  </si>
+  <si>
+    <t>Epsi</t>
+  </si>
+  <si>
+    <t>Ephi</t>
+  </si>
+  <si>
+    <t>Esa</t>
+  </si>
+  <si>
+    <t>Best Zscore</t>
   </si>
 </sst>
 </file>
@@ -220,17 +247,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,15 +612,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,8 +675,32 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -673,8 +752,32 @@
       <c r="Q2">
         <v>0.62710181818199995</v>
       </c>
+      <c r="R2">
+        <v>1.3203125</v>
+      </c>
+      <c r="S2">
+        <v>2.69140625</v>
+      </c>
+      <c r="T2">
+        <v>3.453125</v>
+      </c>
+      <c r="U2">
+        <v>2.2060546900000002</v>
+      </c>
+      <c r="V2">
+        <v>5.7617189999999999E-2</v>
+      </c>
+      <c r="W2">
+        <v>0.13867188</v>
+      </c>
+      <c r="X2">
+        <v>0.67382812000000003</v>
+      </c>
+      <c r="Y2">
+        <v>0.36035156000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -726,8 +829,32 @@
       <c r="Q3">
         <v>0.61935454545500002</v>
       </c>
+      <c r="R3" s="1">
+        <v>1.28808594</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3.6005859400000002</v>
+      </c>
+      <c r="T3" s="1">
+        <v>2.35546875</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3.56054688</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.36230468799999999</v>
+      </c>
+      <c r="W3" s="1">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.83300781199999996</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.32910156200000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -779,8 +906,32 @@
       <c r="Q4">
         <v>0.62675000000000003</v>
       </c>
+      <c r="R4">
+        <v>1.93164062</v>
+      </c>
+      <c r="S4">
+        <v>2.7607421900000002</v>
+      </c>
+      <c r="T4">
+        <v>2.296875</v>
+      </c>
+      <c r="U4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="V4">
+        <v>0.79394531000000002</v>
+      </c>
+      <c r="W4">
+        <v>9.7656199999999992E-3</v>
+      </c>
+      <c r="X4">
+        <v>0.8828125</v>
+      </c>
+      <c r="Y4">
+        <v>0.26367188000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -832,8 +983,32 @@
       <c r="Q5">
         <v>0.62577545454500005</v>
       </c>
+      <c r="R5">
+        <v>2.69726562</v>
+      </c>
+      <c r="S5">
+        <v>3.31054688</v>
+      </c>
+      <c r="T5">
+        <v>1.19726562</v>
+      </c>
+      <c r="U5">
+        <v>1.9140625</v>
+      </c>
+      <c r="V5">
+        <v>2.8681640599999998</v>
+      </c>
+      <c r="W5">
+        <v>8.7890599999999996E-3</v>
+      </c>
+      <c r="X5">
+        <v>1.03027344</v>
+      </c>
+      <c r="Y5">
+        <v>0.32226561999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -885,8 +1060,32 @@
       <c r="Q6">
         <v>0.627966363636</v>
       </c>
+      <c r="R6">
+        <v>2.5859375</v>
+      </c>
+      <c r="S6">
+        <v>2.82226562</v>
+      </c>
+      <c r="T6">
+        <v>2.1337890599999998</v>
+      </c>
+      <c r="U6">
+        <v>3.3798828099999998</v>
+      </c>
+      <c r="V6">
+        <v>1.85449219</v>
+      </c>
+      <c r="W6">
+        <v>8.3007810000000001E-2</v>
+      </c>
+      <c r="X6">
+        <v>0.58300781000000002</v>
+      </c>
+      <c r="Y6">
+        <v>0.28417968999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -938,8 +1137,32 @@
       <c r="Q7">
         <v>0.61557909090899998</v>
       </c>
+      <c r="R7">
+        <v>0.3125</v>
+      </c>
+      <c r="S7">
+        <v>3.28320312</v>
+      </c>
+      <c r="T7">
+        <v>0.6796875</v>
+      </c>
+      <c r="U7">
+        <v>3.98828125</v>
+      </c>
+      <c r="V7">
+        <v>0.38378906000000002</v>
+      </c>
+      <c r="W7">
+        <v>6.8359379999999997E-2</v>
+      </c>
+      <c r="X7">
+        <v>0.63476562000000003</v>
+      </c>
+      <c r="Y7">
+        <v>0.27636718999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -991,8 +1214,32 @@
       <c r="Q8">
         <v>0.62884636363599999</v>
       </c>
+      <c r="R8">
+        <v>1.71679688</v>
+      </c>
+      <c r="S8">
+        <v>3.74609375</v>
+      </c>
+      <c r="T8">
+        <v>2.6181640599999998</v>
+      </c>
+      <c r="U8">
+        <v>3.6640625</v>
+      </c>
+      <c r="V8">
+        <v>9.765625E-2</v>
+      </c>
+      <c r="W8">
+        <v>2.4414060000000001E-2</v>
+      </c>
+      <c r="X8">
+        <v>0.81054687999999997</v>
+      </c>
+      <c r="Y8">
+        <v>0.50488281000000002</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1044,8 +1291,32 @@
       <c r="Q9">
         <v>0.62169272727299996</v>
       </c>
+      <c r="R9">
+        <v>3.51953125</v>
+      </c>
+      <c r="S9">
+        <v>3.84960938</v>
+      </c>
+      <c r="T9">
+        <v>0.79589843999999998</v>
+      </c>
+      <c r="U9">
+        <v>2.63476562</v>
+      </c>
+      <c r="V9">
+        <v>3.90625</v>
+      </c>
+      <c r="W9">
+        <v>7.6171879999999997E-2</v>
+      </c>
+      <c r="X9">
+        <v>0.96679687999999997</v>
+      </c>
+      <c r="Y9">
+        <v>0.35058593999999998</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1097,8 +1368,32 @@
       <c r="Q10">
         <v>0.62736454545499998</v>
       </c>
+      <c r="R10">
+        <v>0.50195312000000003</v>
+      </c>
+      <c r="S10">
+        <v>2.57421875</v>
+      </c>
+      <c r="T10">
+        <v>2.96679688</v>
+      </c>
+      <c r="U10">
+        <v>2.92773438</v>
+      </c>
+      <c r="V10">
+        <v>1.21289062</v>
+      </c>
+      <c r="W10">
+        <v>5.3710939999999999E-2</v>
+      </c>
+      <c r="X10">
+        <v>0.8203125</v>
+      </c>
+      <c r="Y10">
+        <v>0.3046875</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1150,8 +1445,32 @@
       <c r="Q11">
         <v>0.62903454545500004</v>
       </c>
+      <c r="R11" s="1">
+        <v>2.484375</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3.3876953099999998</v>
+      </c>
+      <c r="T11" s="1">
+        <v>2.5205078099999998</v>
+      </c>
+      <c r="U11" s="1">
+        <v>3.8125</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2.34375</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1.17773438</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.404296875</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1203,8 +1522,32 @@
       <c r="Q12">
         <v>0.62120909090900001</v>
       </c>
+      <c r="R12">
+        <v>3.2421875</v>
+      </c>
+      <c r="S12">
+        <v>3.73242188</v>
+      </c>
+      <c r="T12">
+        <v>3.56640625</v>
+      </c>
+      <c r="U12">
+        <v>3.76953125</v>
+      </c>
+      <c r="V12">
+        <v>0.69824218999999998</v>
+      </c>
+      <c r="W12">
+        <v>5.5664060000000001E-2</v>
+      </c>
+      <c r="X12">
+        <v>1.02929688</v>
+      </c>
+      <c r="Y12">
+        <v>0.37304688000000003</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1256,8 +1599,32 @@
       <c r="Q13">
         <v>0.62788636363600003</v>
       </c>
+      <c r="R13">
+        <v>3.515625</v>
+      </c>
+      <c r="S13">
+        <v>3.3212890599999998</v>
+      </c>
+      <c r="T13">
+        <v>1.92578125</v>
+      </c>
+      <c r="U13">
+        <v>3.4697265599999998</v>
+      </c>
+      <c r="V13">
+        <v>0.87402343999999998</v>
+      </c>
+      <c r="W13">
+        <v>1.7578119999999999E-2</v>
+      </c>
+      <c r="X13">
+        <v>0.76660156000000002</v>
+      </c>
+      <c r="Y13">
+        <v>0.44824218999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1309,8 +1676,32 @@
       <c r="Q14">
         <v>0.62683090909100003</v>
       </c>
+      <c r="R14">
+        <v>3.96484375</v>
+      </c>
+      <c r="S14">
+        <v>2.7470703099999998</v>
+      </c>
+      <c r="T14">
+        <v>0.12890625</v>
+      </c>
+      <c r="U14">
+        <v>2.9365234400000002</v>
+      </c>
+      <c r="V14">
+        <v>0.25878906000000002</v>
+      </c>
+      <c r="W14">
+        <v>8.3984379999999997E-2</v>
+      </c>
+      <c r="X14">
+        <v>0.8125</v>
+      </c>
+      <c r="Y14">
+        <v>0.2578125</v>
+      </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1362,8 +1753,32 @@
       <c r="Q15">
         <v>0.62203181818200004</v>
       </c>
+      <c r="R15">
+        <v>2.7177734400000002</v>
+      </c>
+      <c r="S15">
+        <v>3.9873046900000002</v>
+      </c>
+      <c r="T15">
+        <v>1.35546875</v>
+      </c>
+      <c r="U15">
+        <v>3.9638671900000002</v>
+      </c>
+      <c r="V15">
+        <v>3.0009765599999998</v>
+      </c>
+      <c r="W15">
+        <v>5.3710939999999999E-2</v>
+      </c>
+      <c r="X15">
+        <v>0.83007812000000003</v>
+      </c>
+      <c r="Y15">
+        <v>0.42871093999999998</v>
+      </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1415,8 +1830,32 @@
       <c r="Q16">
         <v>0.62588727272699995</v>
       </c>
+      <c r="R16">
+        <v>3.5185546900000002</v>
+      </c>
+      <c r="S16">
+        <v>3.1015625</v>
+      </c>
+      <c r="T16">
+        <v>0.22753905999999999</v>
+      </c>
+      <c r="U16">
+        <v>1.4609375</v>
+      </c>
+      <c r="V16">
+        <v>1.953125</v>
+      </c>
+      <c r="W16">
+        <v>0.12890625</v>
+      </c>
+      <c r="X16">
+        <v>1.05175781</v>
+      </c>
+      <c r="Y16">
+        <v>0.29785156000000002</v>
+      </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1480,8 +1919,40 @@
         <f t="shared" si="0"/>
         <v>0.62488739393940007</v>
       </c>
+      <c r="R18">
+        <f t="shared" ref="R18:Y18" si="1">AVERAGE(R2:R16)</f>
+        <v>2.3544921873333338</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="1"/>
+        <v>3.2610677086666664</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>1.8814453119999999</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>2.9188151046666673</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>1.3777343745333333</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>5.3776041999999996E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>0.86022135413333334</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>0.34707031313333331</v>
+      </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1490,63 +1961,95 @@
         <v>0.44709609310873732</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:Q19" si="1">STDEV(D2:D16)</f>
+        <f t="shared" ref="D19:Q19" si="2">STDEV(D2:D16)</f>
         <v>5.2592140524002403E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0301789128761207E-3</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23452976156614344</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5647063758350039E-3</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6422676047739894E-3</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7153349100742304E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7920668813791322E-3</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1019532401952883E-3</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92840428171608669</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0369192381099427E-2</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5871604827277422E-3</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.63560807346585946</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.4771571055878682E-3</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9692400793916258E-3</v>
       </c>
+      <c r="R19">
+        <f t="shared" ref="R19:Y19" si="3">STDEV(R2:R16)</f>
+        <v>1.1387827832647628</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>0.46274663130347599</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>1.1043913322793177</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="3"/>
+        <v>1.100214750817835</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>1.209398784885221</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="3"/>
+        <v>4.3787644982844362E-2</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="3"/>
+        <v>0.166056189553898</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>7.3181522176135452E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1555,63 +2058,95 @@
         <v>-3.3426681600000001</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:Q20" si="2">MAX(D2:D16)</f>
+        <f t="shared" ref="D20:Q20" si="4">MAX(D2:D16)</f>
         <v>-0.66025927981499999</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.68200967741899998</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.33812489</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.91288760906599997</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.77912999999999999</v>
       </c>
       <c r="I20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.58270131</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.47170766937000003</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.54810689655199996</v>
       </c>
       <c r="L20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-3.2488428499999999</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.49147738380099998</v>
       </c>
       <c r="N20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58461964285699997</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.2010036199999998</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.61985261407100001</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.62903454545500004</v>
       </c>
+      <c r="R20">
+        <f t="shared" ref="R20:Y20" si="5">MAX(R2:R16)</f>
+        <v>3.96484375</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>3.9873046900000002</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>3.56640625</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="5"/>
+        <v>3.98828125</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="5"/>
+        <v>3.90625</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="5"/>
+        <v>0.13867188</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="5"/>
+        <v>1.17773438</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="5"/>
+        <v>0.50488281000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1620,60 +2155,174 @@
         <v>-4.8131571500000003</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:Q21" si="3">MIN(D2:D16)</f>
+        <f t="shared" ref="D21:Q21" si="6">MIN(D2:D16)</f>
         <v>-0.67806516801500005</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.67620887096799998</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.0904454399999999</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.91863769935299999</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.76988999999999996</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.68634423</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.48041637846700003</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.53403965517200003</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.2914773799999999</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.527238830559</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.57302500000000001</v>
       </c>
       <c r="O21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8.2450455599999994</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.59945053056200004</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.61557909090899998</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:Y21" si="7">MIN(R2:R16)</f>
+        <v>0.3125</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="7"/>
+        <v>2.57421875</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
+        <v>0.12890625</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="7"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>5.7617189999999999E-2</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="7"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="7"/>
+        <v>0.58300781000000002</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="7"/>
+        <v>0.2578125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24">
+        <v>-3.3426681600000001</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <v>-0.66837478849900001</v>
+      </c>
+      <c r="E24">
+        <v>0.67635322580599999</v>
+      </c>
+      <c r="F24">
+        <v>-1.33812489</v>
+      </c>
+      <c r="G24">
+        <v>-0.91430306606300005</v>
+      </c>
+      <c r="H24">
+        <v>0.77063499999999996</v>
+      </c>
+      <c r="I24">
+        <v>-2.58270131</v>
+      </c>
+      <c r="J24">
+        <v>-0.479584673844</v>
+      </c>
+      <c r="K24">
+        <v>0.54810689655199996</v>
+      </c>
+      <c r="L24">
+        <v>-3.2488428499999999</v>
+      </c>
+      <c r="M24">
+        <v>-0.49147738380099998</v>
+      </c>
+      <c r="N24">
+        <v>0.579176785714</v>
+      </c>
+      <c r="O24">
+        <v>-6.2010036199999998</v>
+      </c>
+      <c r="P24">
+        <v>0.60268083514600002</v>
+      </c>
+      <c r="Q24">
+        <v>0.62588727272699995</v>
+      </c>
+      <c r="R24">
+        <v>3.5185546900000002</v>
+      </c>
+      <c r="S24">
+        <v>3.1015625</v>
+      </c>
+      <c r="T24">
+        <v>0.22753905999999999</v>
+      </c>
+      <c r="U24">
+        <v>1.4609375</v>
+      </c>
+      <c r="V24">
+        <v>1.953125</v>
+      </c>
+      <c r="W24">
+        <v>0.12890625</v>
+      </c>
+      <c r="X24">
+        <v>1.05175781</v>
+      </c>
+      <c r="Y24">
+        <v>0.29785156000000002</v>
       </c>
     </row>
   </sheetData>
